--- a/docs/LINKFLIX DATA.xlsx
+++ b/docs/LINKFLIX DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSAFY\A104\LINKFLIX\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0836263-B58E-4DE1-A845-028B5A48D204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DFC6E4-943C-4D4B-9075-D5A225A5ED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="708" yWindow="1128" windowWidth="21336" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10644" yWindow="1932" windowWidth="16488" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>검색어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>알렉산더맥퀸 더 커브 버킷 크로스백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>56:27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쿠론 론드 Ronde 크로스 21 RCBRX21716GRX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>쿠론 론드(Ronde) 크로스 21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,18 +139,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아미마켓 비뮤즈맨션 Linen embroidery cardigan 21SUMBEMU1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비뮤즈맨션 Linen embroidery cardigan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>까르띠에 추가금액없음 시계 BALLON BLANC De W4BL2202 W4BL0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BALLON BLANC DE CARTIER WATCH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쿠론 Swing Jean 스윙 진 Tote 26 RCBTX21115BKX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Swing Jean(스윙 진) Tote 26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,11 +247,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>갈색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회색</t>
+    <t>쿠론 Swing Jean Tote 26 RCBTX21115BKX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>까르띠에 시계 BALLON BLANC De W4BL2202 W4BL0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비뮤즈맨션 Linen embroidery cardigan 21SUMBEMU1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠론 Ronde 크로스 21 RCBRX21716GRX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로저비비에 트레 비비에 버클 벨벳 펌프스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>막스마라 여성 Zircone wool sweater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX MARA Zircone wool sweater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be254f86-b2db-4191-86b0-ccc6a7e55cd6.jpg</t>
+  </si>
+  <si>
+    <t>40df6684-cbfd-415b-931b-905195413dfd.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40faadbb-d9a8-4060-b3ab-109ea3944c06.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c35ccf1a-18f5-4ea6-93e8-8fd3c9ac2764.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106f76c5-6ed6-45cf-8c3d-a09b4021dd68.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -279,7 +298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +323,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF555555"/>
+      <name val="Source Code Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -330,7 +355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -357,6 +382,9 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -639,25 +667,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="34.69921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="48.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.8984375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -666,10 +694,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -685,9 +713,6 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
@@ -702,9 +727,6 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
@@ -753,238 +775,264 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1">
         <v>6</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>39</v>
+      <c r="A10" s="8">
+        <v>0.50694444444444442</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D14" s="1">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="1">
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="6">
+      <c r="E19" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="6">
         <v>0.22430555555555556</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="6">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="B23" s="5" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="8">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="8">
-        <v>0.33055555555555555</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="1">
         <v>21</v>
       </c>
     </row>
@@ -996,9 +1044,9 @@
     <hyperlink ref="C5" r:id="rId3" tooltip="까르띠에 PANTHERE 팬더 미니사이즈 스틸밴드 WSPN0019" display="https://cr.shopping.naver.com/adcr.nhn?x=s9mPpd1pAnYTanIzro1%2F3v%2F%2F%2Fw%3D%3DsdHL0IOHHu3EOcVtLcACP8sPhYUkvH0NB%2BNbBBGzzz2EyBOrQFPirAIEf5%2BlrYAP2oWQX%2B%2FRm9DAHNV9ZTusEKRe9wd0CSHbDYH4aKqst94%2BAbCY81f975eS5nfR25FBiI1ODi9hUm3Sq0pLB9du%2BPrpOEAZZPr9NdjMeFdaw92gNxHtqu0C61RU57OzTYElmmk92yXOijJ6gSyiSD420bcv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKRDdHUtI1fFwpC4%2Bq0sLxLljG0ZbSntwqq6wS8dcLsu5lvNPJmmmfrE6Dp0zejnNms0Ge%2BvjMXsTf2VGO6yIimE2ffXUI5OM%2FcNr3r%2B%2FD3Kg0oYvHqLsruugOIirNkU0h3H9ltuHmBrSyOpOR854VkcpHK%2Br58NSzrc5LFh%2BYDVfNaoboF7sDoHiQ27cIqiFUqOnq%2Fb%2B49UzGYWtPYfgZoX%2F6Jg8nWsiqyDD%2Bpv26bWW7yl8zm2P2eb8RjMr894Deft9QDHES%2BBvnqyDDn1f8WMHe3C%2FmfUT2fLuqjOVKeEuK2D%2BlJP7QcQUrfWb6fvV5v8lVQkBZpra9Ch2mgeY28FyY3EYh6rVdaIaBmcx8SbxlEDPWyy%2B6gq29jmhSBa0tYnHIcETcJifOE8sb44IMxZXfPZMMGXqs0Aq7wX%2FXG%2Fj%2F9k0erCHT1QraFJ6Jac2ezY6of2Xpggjm6A4Z8HgJhg%3D%3D&amp;nvMid=28607920659&amp;catId=50004141" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="C6" r:id="rId4" tooltip="에르메스 에르백 31 Herbag Zip 31 Dune Magnolia" display="https://cr.shopping.naver.com/adcr.nhn?x=kLBLxZzITmDwbvUMvbet9P%2F%2F%2Fw%3D%3Ds60RzedtZrNfJMz6L2eDKfYzcRHBat6Js6TPExz9YaAeD3eZufch47WOaKZpss0hHdARhH3hPI0Kf6%2FfEZaK8%2B7kVVNGQ1tlqWQlxMcZGuwM0VvrOm%2BsNK24o23oSoVL6ueCfFDuywxl3T1PQ6PKMjPlDLGa%2BzH1VPuHBWybn7PXjRneZO9b30oDmKrVffqWbulrtvLLz8mVh0MR9fNk9sohV9JS3NXKA8p1b3m2T4jTDpmNu2Rs3tEPrV0ZTODsbRUiAgbyNQEwxTefMgv3tsVSFIPat%2Bywth7wYvxeVxDsqfqTl%2Fxa9wbynQSdTbF%2B%2B6h%2B13mM04lYBC6wWoO9rj5tB9woWcP4T5sg5bYZv052p4RGJqlhIri3wem0T82j8VZY8twh7VjBTlH9Smj3bGuE1bRbZJcAgOejk3%2FkuGtDpEXXKEcLB6pBHse60zzVt9UEMwi63jafLIzwwY0rYseKDk0Uk%2Be2sGe0x5NeTwoS0NmZ1gatCjipyP1sdWr26CzunuRq8lmFAEyltsMeW5Nk%2BthidgZ0My39pIB4CTNMCjPrs74cl6BisJsiWP%2FZLRRiPFB8cyAfDahI4PurGAXg8jytFvzVzy7LenPZkD5ZB7g05cnE%2Fr4jm04wwL7b%2Fk135FyjqykmCM8twL2wyccmXWnqqwj%2Fno4R2JKiC78dGdGb7gROPoS2VpIBO6L%2B83JL0yrjBxEHXWyxUQaZoIAE0KAaGcmhjIDxXiPYBFw0NUJgJp6CUXauCvW7Y5AjN&amp;nvMid=27944759686&amp;catId=50000640" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="C2" r:id="rId5" tooltip="에르메스 Authentic Herm s Rose Azalee Evercolor Calfskin Roulis Handbag - BNIB Authentic Herm s Ros" display="https://cr.shopping.naver.com/adcr.nhn?x=WYR8fupnpGOMa20NoLS5Z%2F%2F%2F%2Fw%3D%3DsB%2BxaFZ6UKbbl00oK8vXeDnnTWa%2FlJ%2BY%2B%2BkudvZtZECQl6Qj5aMbkBMix7SCp9w6vsnMo11NMRI2Btpn9AWJNgEls1M9xucXxkPPt7QTmSRFr6kdrp7BvT8OlwZ7P37Yy23OicXWKiB4vw6Uw%2FoUYe61Msk6Fab7%2FRGD41OsnTLQeO%2BaTVoBPNgYPL2Gw3OXblOTP5T%2BVZM2rN9y8Oh9%2FYbngnxQ7ssMZd09T0OjyjIzRdi%2BQAVqxj5m0%2BHujQFuVTQC8zNZFl3TfcpXT1RyX3zeRbsQ%2FnnncfZSq6W6te5fnSOH68m6gRsZN%2Flr%2FhqlexXa12gsT6c8Wsw9gNp8wm%2Fpj1pkkFCu2UL5xsPInce84BOYE45L6Y4bbF86UwqvaFY0AqSJOZMeLCVtoa0X5ynT%2BAuZdiuS%2FqNQMdKFOchy8umd82RyUUyioCZIujXiJ3KSBdMddPRj2YukjdaEWR3C6mAFccDqwIB%2Bw75WHy3qf6cOuALUSNNoEh3KyaoPjGkWkDx18oR8YM2Jdips7DFlTsJlauZf5M6E3mebKPEB2HexmC%2BHIL8Suh1Hm5lJLh0sm71jN85DhXeV5o8SBt7S9G4Ak6VA5uCJAqUALEVYFoCSwJ63258yAUewGMF8PiA3%2FU2AzguC84AnoS7Lq%2BV9sBC5nBKX4Cz0jyUj2VfrcWEGips4%2BfH7katyKuquZ5Hv1T%2FoDPeAT2ZD%2BWCfnsQ%3D%3D&amp;nvMid=25429483892&amp;catId=50000641" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C23" r:id="rId6" tooltip="미국 클럽모나코 남성 긴팔 얇은 스트라이프 포플린 셔츠 Long Sleeve Thin Stripe Poplin Shirt 576651" display="https://cr.shopping.naver.com/adcr.nhn?x=pZ6GNyHYREqScbspp4fIWv%2F%2F%2Fw%3D%3DsbMUoWgtM903GAoxgd1eNHiGzr%2F%2BQSIJNycai%2FV27JHsJ2wjFjib2rS5xuC1GVXx3duw5hO0O6qogZ6iSa3FIv7%2BR7I0K2g0xib7vn9vHJjzZxnnBcUdiArBP9w%2BRe%2F09WaWPo5j6O0fIWQRxyYvGH6pNQBbS4tfjI5ySLm8Q1E2oLj%2Bg1WezUo5Wfcgpcv0XCVJIuhE8RrX5KLvilaLw7EGweQhDMpGbzC%2FFpjPJ9uXunwMTl895DuagayWQeYkF%2F7kMx7RXh4e0qbHjO86L3prFFesfYfRQM9nDp0FY%2Bb7GaKH3aRyxTyD2x6KcwCiwpQfRTO%2FngBN4xAB9Yu4CgkUUJBHli4fxvYh9YBfrL11hRFffAnwMIv4KbDg9X0OgWrhaLul6h1Vm2QA4dTF7G8WbYacPY7QbnWsRQLreDZYlySbatQwQ%2BEAaD0pjBcTb334rL%2BbR36BhYe0R%2FrUmjgBSTS1sRv49oBHxm%2Bxq6HjARqwppjAwpLovTj1CFwSBj4CKFCwn%2BgXGaH39gRA8c3%2BUucnAxrsG3xHb9QOpCsLJ%2BZmnXgInLdIp8OhuUmulLlN8gQqoPvpfj8zsxeoXzw1f4%2BN0FLO0Ly22pb6e2BhiJi9TY73KmYzApA8ciZ5AJSmoSQCkUy3HTj%2BMdPCVbSAT1bWY38ZP8m4dKI6I4a5Qle42OOt5FGHfRwLjma36RjNYV59fxxhVgulxis%2FqVqFJyU2RrOuOCGzWZEUgrAt7EcuMyVCTEj78XMbnv25NM8lGkEIZvTfAsgfQ6RNMecFhwy8PKBzWoFiaJs8CB4ur7VAb36ErED7xDOmVlGU6YDUdhhZwT7ATfCHQv4%2FfWlNkiNOj2iN%2FnDH9SF0WJ9AR5ZJqySlJgcLJXMihk4ZxHRyPBWbUFRhWScTsgQynPg%3D%3D&amp;nvMid=83322095107&amp;catId=50000833" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C24" r:id="rId7" tooltip="로렌랄프로렌 인타시아 니트 코튼 모달 여름 반팔 스웨터 YELLOW" display="https://cr.shopping.naver.com/adcr.nhn?x=fGge8q%2F4E3H9vo2aDiTcbP%2F%2F%2Fw%3D%3DsiY6CCq0wb4n0%2Bsk3535TLv0LlqkbMWWgcRXmcmuGolBjpHuDdEymLce6WxpY6Ce4cZXlsLaKxlS69V%2FyMm85rWbNB%2FbX7tUmEA83HyUYHARapjKnG%2FY7LO9MUJ8GNlLSWxk6KdOikfHIDIra79PL6Nix8OaeAwNzfRqtJRuCGXA1yPhA3AiZ8QrXeepUkdOLfHOou7IhQPVPkAfG3kJ9MwBH9aXe9h2JjieK8mL%2BLh%2FFSIVE2KtidcBeF3Cg9gDlpDgN2WrXhv2PHiscF9RNDdoUUo4QpYHMsCy%2B5YaBie5xDTRiY%2B0tg4wdqXae7XwEhmeWtJmvw8M90EK%2Bzy5a1yVdN3LpKf%2FbKuiZi7z1XJTJxEozK9DlmgN5cYhYnbfH91PnuGRijfb1HewIm4kS6ce9j9TM33g7MivnAbc9%2BIBCOQtcfwV9UyzpGwV2BQmavEI7rEs6lNRuGJYCSrpLe7aYdCUsTrkNGSGiO2WYluuVwOYs%2FqXIakdinB5MBavZYxV%2Bnp6xx7wCRB57jlV4ShHnH6%2Bz80TbxQfOt8l8pql9JmeCkARahURORLuhBzwaFkv8%2Fr%2FkuTdVAxMjJFFsXH6bGCb17csOEl09DjDCjXUorLjRq2YH4ABd4INKHgwoSrWly1B834bCyB82fQ9TyfaHwaRfVJNFfdBi%2FbgbUlvwpTlLmJwA8rC4eynVXNOYkHaXlaRb6pc1MMn2Qgjzp29TZjqEQTAbFzUBl8432wvhVEAf6wwM5tqtSh0bB5Hx&amp;nvMid=83105523838&amp;catId=50000805" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C25" r:id="rId8" tooltip="[ASIA] 스트라이프 긴팔 티셔츠 (LIGHT ORANGE) CKTS0F525O1" display="https://cr.shopping.naver.com/adcr.nhn?x=BIa0pjpHV%2BmNhHVn7rcF9v%2F%2F%2Fw%3D%3DsSQy4imW%2FcEFY5mRwEz4amupYm%2FaphIVjPSYhRhNyBElMKeNT7oKd24RwqRoFQYFrPOQJgdPjjIA5%2FqVDJleWSSNikJgEkW5zVvvE%2B9FaW7ayXqwpREYPeYbtdtWbFzpQut4x2JGFLDyvWJG1iFJHjGh127OkcPUgfAIPJjmUI1Gkm4EINq7DXRqLChynlQJHSX6sI6MwwFbJD%2BXambx%2BXerEAXo9XMSjmP9ZJDMLzNswi0nS94faqXj8%2FxF8AEeOIRpk%2F3naDVH141FQydqSq1JReKPpLs7eM2%2Fs8wOUAeko5kfPcyWYHsE5YIQe9mCkvzy3klAoogkFwoqP3leRIyXJJtq1DBD4QBoPSmMFxNvffisv5tHfoGFh7RH%2BtSaOAFJNLWxG%2Fj2gEfGb7GroeGPBHR371qtbniSXz6XikUA0jV2CV9%2BEqAxqhNpGOZR3V36ogsAbT2GMBHUreotiQNSUlKJ8h84dKXp9M6LB%2FWMHH6NUhMW8a3p%2FeiLVL1ljF%2B5KiYX8oKq04pbu1TKf00tR6mS7dug6Riz%2Br83jpLc85AmB0%2BOMgDn%2BpUMmV5ZJI2KQmASRbnNW%2B8T70VpbtrJerClERg95hu121ZsXOlC7gOClfcPwvIrXH2jztCafY6%2BKy6NtiNkhQHLUIWKLmYlU6LuMGG8wqku7c2%2BVcNLmELFO07QEQYUyi%2Bk709RTWYlCsofVsPN5CMO1fW%2FZwtD9tEimLNwPdXnZMzNxQjTZ5SuBQrE1Wru4Ak4nciNohWw3%2BIByOa0jCVNQVnCDoA%3D%3D&amp;nvMid=83312350646&amp;catId=50000830" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C24" r:id="rId6" tooltip="미국 클럽모나코 남성 긴팔 얇은 스트라이프 포플린 셔츠 Long Sleeve Thin Stripe Poplin Shirt 576651" display="https://cr.shopping.naver.com/adcr.nhn?x=pZ6GNyHYREqScbspp4fIWv%2F%2F%2Fw%3D%3DsbMUoWgtM903GAoxgd1eNHiGzr%2F%2BQSIJNycai%2FV27JHsJ2wjFjib2rS5xuC1GVXx3duw5hO0O6qogZ6iSa3FIv7%2BR7I0K2g0xib7vn9vHJjzZxnnBcUdiArBP9w%2BRe%2F09WaWPo5j6O0fIWQRxyYvGH6pNQBbS4tfjI5ySLm8Q1E2oLj%2Bg1WezUo5Wfcgpcv0XCVJIuhE8RrX5KLvilaLw7EGweQhDMpGbzC%2FFpjPJ9uXunwMTl895DuagayWQeYkF%2F7kMx7RXh4e0qbHjO86L3prFFesfYfRQM9nDp0FY%2Bb7GaKH3aRyxTyD2x6KcwCiwpQfRTO%2FngBN4xAB9Yu4CgkUUJBHli4fxvYh9YBfrL11hRFffAnwMIv4KbDg9X0OgWrhaLul6h1Vm2QA4dTF7G8WbYacPY7QbnWsRQLreDZYlySbatQwQ%2BEAaD0pjBcTb334rL%2BbR36BhYe0R%2FrUmjgBSTS1sRv49oBHxm%2Bxq6HjARqwppjAwpLovTj1CFwSBj4CKFCwn%2BgXGaH39gRA8c3%2BUucnAxrsG3xHb9QOpCsLJ%2BZmnXgInLdIp8OhuUmulLlN8gQqoPvpfj8zsxeoXzw1f4%2BN0FLO0Ly22pb6e2BhiJi9TY73KmYzApA8ciZ5AJSmoSQCkUy3HTj%2BMdPCVbSAT1bWY38ZP8m4dKI6I4a5Qle42OOt5FGHfRwLjma36RjNYV59fxxhVgulxis%2FqVqFJyU2RrOuOCGzWZEUgrAt7EcuMyVCTEj78XMbnv25NM8lGkEIZvTfAsgfQ6RNMecFhwy8PKBzWoFiaJs8CB4ur7VAb36ErED7xDOmVlGU6YDUdhhZwT7ATfCHQv4%2FfWlNkiNOj2iN%2FnDH9SF0WJ9AR5ZJqySlJgcLJXMihk4ZxHRyPBWbUFRhWScTsgQynPg%3D%3D&amp;nvMid=83322095107&amp;catId=50000833" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C25" r:id="rId7" tooltip="로렌랄프로렌 인타시아 니트 코튼 모달 여름 반팔 스웨터 YELLOW" display="https://cr.shopping.naver.com/adcr.nhn?x=fGge8q%2F4E3H9vo2aDiTcbP%2F%2F%2Fw%3D%3DsiY6CCq0wb4n0%2Bsk3535TLv0LlqkbMWWgcRXmcmuGolBjpHuDdEymLce6WxpY6Ce4cZXlsLaKxlS69V%2FyMm85rWbNB%2FbX7tUmEA83HyUYHARapjKnG%2FY7LO9MUJ8GNlLSWxk6KdOikfHIDIra79PL6Nix8OaeAwNzfRqtJRuCGXA1yPhA3AiZ8QrXeepUkdOLfHOou7IhQPVPkAfG3kJ9MwBH9aXe9h2JjieK8mL%2BLh%2FFSIVE2KtidcBeF3Cg9gDlpDgN2WrXhv2PHiscF9RNDdoUUo4QpYHMsCy%2B5YaBie5xDTRiY%2B0tg4wdqXae7XwEhmeWtJmvw8M90EK%2Bzy5a1yVdN3LpKf%2FbKuiZi7z1XJTJxEozK9DlmgN5cYhYnbfH91PnuGRijfb1HewIm4kS6ce9j9TM33g7MivnAbc9%2BIBCOQtcfwV9UyzpGwV2BQmavEI7rEs6lNRuGJYCSrpLe7aYdCUsTrkNGSGiO2WYluuVwOYs%2FqXIakdinB5MBavZYxV%2Bnp6xx7wCRB57jlV4ShHnH6%2Bz80TbxQfOt8l8pql9JmeCkARahURORLuhBzwaFkv8%2Fr%2FkuTdVAxMjJFFsXH6bGCb17csOEl09DjDCjXUorLjRq2YH4ABd4INKHgwoSrWly1B834bCyB82fQ9TyfaHwaRfVJNFfdBi%2FbgbUlvwpTlLmJwA8rC4eynVXNOYkHaXlaRb6pc1MMn2Qgjzp29TZjqEQTAbFzUBl8432wvhVEAf6wwM5tqtSh0bB5Hx&amp;nvMid=83105523838&amp;catId=50000805" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C26" r:id="rId8" tooltip="[ASIA] 스트라이프 긴팔 티셔츠 (LIGHT ORANGE) CKTS0F525O1" display="https://cr.shopping.naver.com/adcr.nhn?x=BIa0pjpHV%2BmNhHVn7rcF9v%2F%2F%2Fw%3D%3DsSQy4imW%2FcEFY5mRwEz4amupYm%2FaphIVjPSYhRhNyBElMKeNT7oKd24RwqRoFQYFrPOQJgdPjjIA5%2FqVDJleWSSNikJgEkW5zVvvE%2B9FaW7ayXqwpREYPeYbtdtWbFzpQut4x2JGFLDyvWJG1iFJHjGh127OkcPUgfAIPJjmUI1Gkm4EINq7DXRqLChynlQJHSX6sI6MwwFbJD%2BXambx%2BXerEAXo9XMSjmP9ZJDMLzNswi0nS94faqXj8%2FxF8AEeOIRpk%2F3naDVH141FQydqSq1JReKPpLs7eM2%2Fs8wOUAeko5kfPcyWYHsE5YIQe9mCkvzy3klAoogkFwoqP3leRIyXJJtq1DBD4QBoPSmMFxNvffisv5tHfoGFh7RH%2BtSaOAFJNLWxG%2Fj2gEfGb7GroeGPBHR371qtbniSXz6XikUA0jV2CV9%2BEqAxqhNpGOZR3V36ogsAbT2GMBHUreotiQNSUlKJ8h84dKXp9M6LB%2FWMHH6NUhMW8a3p%2FeiLVL1ljF%2B5KiYX8oKq04pbu1TKf00tR6mS7dug6Riz%2Br83jpLc85AmB0%2BOMgDn%2BpUMmV5ZJI2KQmASRbnNW%2B8T70VpbtrJerClERg95hu121ZsXOlC7gOClfcPwvIrXH2jztCafY6%2BKy6NtiNkhQHLUIWKLmYlU6LuMGG8wqku7c2%2BVcNLmELFO07QEQYUyi%2Bk709RTWYlCsofVsPN5CMO1fW%2FZwtD9tEimLNwPdXnZMzNxQjTZ5SuBQrE1Wru4Ak4nciNohWw3%2BIByOa0jCVNQVnCDoA%3D%3D&amp;nvMid=83312350646&amp;catId=50000830" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId9"/>

--- a/docs/LINKFLIX DATA.xlsx
+++ b/docs/LINKFLIX DATA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSAFY\A104\LINKFLIX\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A104\LINKFLIX\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DFC6E4-943C-4D4B-9075-D5A225A5ED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10644" yWindow="1932" windowWidth="16488" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10644" yWindow="1932" windowWidth="16488" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
   <si>
     <t>검색어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,14 +290,101 @@
   </si>
   <si>
     <t>106f76c5-6ed6-45cf-8c3d-a09b4021dd68.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기생충 (81221938)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짜파게티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너구리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농심 얼큰한 너구리 120g</t>
+  </si>
+  <si>
+    <t>농심 올리브 짜파게티 140g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파머스코리아 1+등급 안창살 400g 채끝살 400g 한우선물세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한우 채끝살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아식스 양말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아식스 테니스 양말 남성 장목 스포츠양말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG G3폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG전자 LG G3 LG-F400S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오미베리 베리티 325ml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49:58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK매직 DWA-19R0P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38:34, 56:07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새턴바스 욕조 SBL-1802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱅앤울룹슨 h9i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새턴바스 세턴바스VESS 베스 액상 레진 직사각 라운드 고급 욕조 SBL-1802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오미베리 베리티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱅앤울룹슨 BeoPlay H9i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:17, 40:52</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,12 +416,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -355,7 +447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,8 +475,17 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -666,24 +767,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="34.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="62" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.69921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="45.8984375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -700,7 +801,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -714,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,7 +829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -742,7 +843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -756,7 +857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -770,15 +871,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -795,7 +896,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5">
       <c r="A10" s="8">
         <v>0.50694444444444442</v>
       </c>
@@ -809,7 +910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -823,7 +924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -837,7 +938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -850,11 +951,11 @@
       <c r="D13" s="1">
         <v>9</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -871,7 +972,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -888,7 +989,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -902,7 +1003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -916,7 +1017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -930,7 +1031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -947,7 +1048,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>52</v>
       </c>
@@ -955,7 +1056,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5">
       <c r="A22" s="6">
         <v>0.22430555555555556</v>
       </c>
@@ -969,86 +1070,212 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="6">
+    <row r="23" spans="1:5">
+      <c r="A23" s="6">
         <v>0.83333333333333337</v>
       </c>
+      <c r="B23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="B24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D24" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="8">
+    <row r="28" spans="1:5">
+      <c r="A28" s="8">
         <v>0.33055555555555555</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D28" s="1">
         <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="8">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="11">
+        <v>5.4120370370370374E-2</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="11">
+        <v>5.451388888888889E-2</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="11">
+        <v>5.451388888888889E-2</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="11">
+        <v>5.4594907407407411E-2</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="1">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" tooltip="로저비비에 실버 여성 플라워 스트라스 버클 펌프스 / ROGER VIVIER FLOWER STRASS BUCKLE PUMPS (관부가세 불포함)" display="https://cr.shopping.naver.com/adcr.nhn?x=d3N7RJmM6p06eWjtafXt8v%2F%2F%2Fw%3D%3DsMNj6o3vGXsNN0ROM6wIMTg8V60KMSh3H9qIFOnUdaBnclH%2BOYrlGLNo6xkox950Chc61n7dh17gsJ12nPlStKLkYIxuPWj%2FzbZD%2FgSgw%2BmseKc2vHmyDiFz6z7BhkveXpOr9sPYwajBkeE07IGGkJ1apdC5dhhD5mAA3omrTA3QU4C6kJNkgW0jdT3oOegh2tBEINplRGOcL30oPpGAh3xSSPd7%2FjV1EQGHRdsy3EvPmtDtk1%2BxiA2Vt3XvL41PMHTuK0lNNGPPNMuNnn1NGmmd2ekdiorBtiO%2FS6JP58cHKhpw5bGtHCiawE8g8YBEuyLfRC0o%2FWYDsFhk%2BnF4ktzVCZ4rdk8hPModxsSdH4jzPs3W4FiDoCAyGAtDOgG%2BXDlBLqOF0ReVAOhPXzR%2ByR8IBwxuOOA%2BnmtCjWPmM%2BdOPb8vbC1FieQCaX7ZG7U9eH%2FW%2FYvncGAD3uL2mobUGYX%2F6Jg8nWsiqyDD%2Bpv26bWUgXPK%2F06f%2BN298MLSpugT9BqD8m8FcgS8%2Bbxv1leqjGru8wdcHV5BAGBTE%2BwcI5Old0dNQZzCoSqWZ13UiVvdXUYvxH8BPlO2S9n28Ci0N9GMrzXKG3gPpC31XXLB4kvVi5WFXCCCePqrXkyPwvwvZMrr74Tw8oTnsx2tsVaIuJ7fh7rfZXeYCgbHhBspsh4V1iENbt87dBhWm%2Ba8yFpbDEXQt827PIq0DWtXMapPdTYyJFlVwhP5yCfKB6qkp3TUm8l08ZjuQkPrRiCfQ%2BEDEHRyPBWbUFRhWScTsgQynPg%3D%3D&amp;nvMid=83449928983&amp;catId=50003830" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" tooltip="HYERES LOR 에리떼 실버 커브 엠블럼 귀걸이 HL5E13518W9XXX" display="https://cr.shopping.naver.com/adcr.nhn?x=hwBDbaNzjuggVNMQ%2FK3Q%2F%2F%2F%2F%2Fw%3D%3DsdJsFfiXPIY0HS4yIZlgzL9PNx4qGoZ61bVcz%2BT%2BV%2FgVtsM9rEXEwL1T444%2FXhcEFEAXzKjl4piMmEuf11ZJzLbQXcxZSMr1039ghUqXqtTlJbNTPcbnF8ZDz7e0E5kkRa%2BpHa6ewb0%2FDpcGez9%2B2MjGjsRcfwXSkoYQzF5F0pljEkdk%2BeGHP8AkoSmla56VXJ6aT0bBCKSA6sO24iFJe9zRW%2Bs6b6w0rbijbehKhUvq54J8UO7LDGXdPU9Do8oyMQREElp8v3cdbp4UKsoq9srKmEJhTkiuGT8ZcuriUg4tWGQQy1BTWAHeID9oMm5MhGpVo%2Bn63YeQ1aCXwbFZDWO7vsw7HJlhcgh4rRunuj4ID4IpwfCzBtdrpcx5B0S41mXlzqOKhEEksE8MqDNXpsqnhEYmqWEiuLfB6bRPzaPxVljy3CHtWMFOUf1KaPdsaPcIU8dA8pRf6ZiBiSE75lD3bht5rSdeXcS%2FKuZZhqGVkIptLkhleORsoGb3BUK6Qy%2BL3y%2B0PnPozOnlQIH%2Fw7ZRxvxp2%2FoJZdGdpdml14fxNlNuZ0M%2FaucIFfrtZ%2FHC%2FKqrVQeFoiRy0TcYn1%2FKlDtF%2FTEqp2ektz4ZTFxhIJlEf%2BWbwtcT%2FxxReSJ3yEvvmpd7F9ZfgAt0VULV6jtXk3dZmaeHE%2FOHtbIlHGtI0He3O5qic%2Fl2QWDjSMe3d%2FYkWVJjMnpfdLHT%2BmkHEAfRozgGSeP9ISFl0zmvi%2Bd74cz62k%2BBBQEGhvEplrOhVpAiGinVDaWQvx6y4SoL5dFSemRFogIDsQnHsABx0ichdrodB0CIl3BeKsFF2drF%2B%2BsFv&amp;nvMid=26339135591&amp;catId=50004161" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" tooltip="까르띠에 PANTHERE 팬더 미니사이즈 스틸밴드 WSPN0019" display="https://cr.shopping.naver.com/adcr.nhn?x=s9mPpd1pAnYTanIzro1%2F3v%2F%2F%2Fw%3D%3DsdHL0IOHHu3EOcVtLcACP8sPhYUkvH0NB%2BNbBBGzzz2EyBOrQFPirAIEf5%2BlrYAP2oWQX%2B%2FRm9DAHNV9ZTusEKRe9wd0CSHbDYH4aKqst94%2BAbCY81f975eS5nfR25FBiI1ODi9hUm3Sq0pLB9du%2BPrpOEAZZPr9NdjMeFdaw92gNxHtqu0C61RU57OzTYElmmk92yXOijJ6gSyiSD420bcv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKRDdHUtI1fFwpC4%2Bq0sLxLljG0ZbSntwqq6wS8dcLsu5lvNPJmmmfrE6Dp0zejnNms0Ge%2BvjMXsTf2VGO6yIimE2ffXUI5OM%2FcNr3r%2B%2FD3Kg0oYvHqLsruugOIirNkU0h3H9ltuHmBrSyOpOR854VkcpHK%2Br58NSzrc5LFh%2BYDVfNaoboF7sDoHiQ27cIqiFUqOnq%2Fb%2B49UzGYWtPYfgZoX%2F6Jg8nWsiqyDD%2Bpv26bWW7yl8zm2P2eb8RjMr894Deft9QDHES%2BBvnqyDDn1f8WMHe3C%2FmfUT2fLuqjOVKeEuK2D%2BlJP7QcQUrfWb6fvV5v8lVQkBZpra9Ch2mgeY28FyY3EYh6rVdaIaBmcx8SbxlEDPWyy%2B6gq29jmhSBa0tYnHIcETcJifOE8sb44IMxZXfPZMMGXqs0Aq7wX%2FXG%2Fj%2F9k0erCHT1QraFJ6Jac2ezY6of2Xpggjm6A4Z8HgJhg%3D%3D&amp;nvMid=28607920659&amp;catId=50004141" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C6" r:id="rId4" tooltip="에르메스 에르백 31 Herbag Zip 31 Dune Magnolia" display="https://cr.shopping.naver.com/adcr.nhn?x=kLBLxZzITmDwbvUMvbet9P%2F%2F%2Fw%3D%3Ds60RzedtZrNfJMz6L2eDKfYzcRHBat6Js6TPExz9YaAeD3eZufch47WOaKZpss0hHdARhH3hPI0Kf6%2FfEZaK8%2B7kVVNGQ1tlqWQlxMcZGuwM0VvrOm%2BsNK24o23oSoVL6ueCfFDuywxl3T1PQ6PKMjPlDLGa%2BzH1VPuHBWybn7PXjRneZO9b30oDmKrVffqWbulrtvLLz8mVh0MR9fNk9sohV9JS3NXKA8p1b3m2T4jTDpmNu2Rs3tEPrV0ZTODsbRUiAgbyNQEwxTefMgv3tsVSFIPat%2Bywth7wYvxeVxDsqfqTl%2Fxa9wbynQSdTbF%2B%2B6h%2B13mM04lYBC6wWoO9rj5tB9woWcP4T5sg5bYZv052p4RGJqlhIri3wem0T82j8VZY8twh7VjBTlH9Smj3bGuE1bRbZJcAgOejk3%2FkuGtDpEXXKEcLB6pBHse60zzVt9UEMwi63jafLIzwwY0rYseKDk0Uk%2Be2sGe0x5NeTwoS0NmZ1gatCjipyP1sdWr26CzunuRq8lmFAEyltsMeW5Nk%2BthidgZ0My39pIB4CTNMCjPrs74cl6BisJsiWP%2FZLRRiPFB8cyAfDahI4PurGAXg8jytFvzVzy7LenPZkD5ZB7g05cnE%2Fr4jm04wwL7b%2Fk135FyjqykmCM8twL2wyccmXWnqqwj%2Fno4R2JKiC78dGdGb7gROPoS2VpIBO6L%2B83JL0yrjBxEHXWyxUQaZoIAE0KAaGcmhjIDxXiPYBFw0NUJgJp6CUXauCvW7Y5AjN&amp;nvMid=27944759686&amp;catId=50000640" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C2" r:id="rId5" tooltip="에르메스 Authentic Herm s Rose Azalee Evercolor Calfskin Roulis Handbag - BNIB Authentic Herm s Ros" display="https://cr.shopping.naver.com/adcr.nhn?x=WYR8fupnpGOMa20NoLS5Z%2F%2F%2F%2Fw%3D%3DsB%2BxaFZ6UKbbl00oK8vXeDnnTWa%2FlJ%2BY%2B%2BkudvZtZECQl6Qj5aMbkBMix7SCp9w6vsnMo11NMRI2Btpn9AWJNgEls1M9xucXxkPPt7QTmSRFr6kdrp7BvT8OlwZ7P37Yy23OicXWKiB4vw6Uw%2FoUYe61Msk6Fab7%2FRGD41OsnTLQeO%2BaTVoBPNgYPL2Gw3OXblOTP5T%2BVZM2rN9y8Oh9%2FYbngnxQ7ssMZd09T0OjyjIzRdi%2BQAVqxj5m0%2BHujQFuVTQC8zNZFl3TfcpXT1RyX3zeRbsQ%2FnnncfZSq6W6te5fnSOH68m6gRsZN%2Flr%2FhqlexXa12gsT6c8Wsw9gNp8wm%2Fpj1pkkFCu2UL5xsPInce84BOYE45L6Y4bbF86UwqvaFY0AqSJOZMeLCVtoa0X5ynT%2BAuZdiuS%2FqNQMdKFOchy8umd82RyUUyioCZIujXiJ3KSBdMddPRj2YukjdaEWR3C6mAFccDqwIB%2Bw75WHy3qf6cOuALUSNNoEh3KyaoPjGkWkDx18oR8YM2Jdips7DFlTsJlauZf5M6E3mebKPEB2HexmC%2BHIL8Suh1Hm5lJLh0sm71jN85DhXeV5o8SBt7S9G4Ak6VA5uCJAqUALEVYFoCSwJ63258yAUewGMF8PiA3%2FU2AzguC84AnoS7Lq%2BV9sBC5nBKX4Cz0jyUj2VfrcWEGips4%2BfH7katyKuquZ5Hv1T%2FoDPeAT2ZD%2BWCfnsQ%3D%3D&amp;nvMid=25429483892&amp;catId=50000641" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C24" r:id="rId6" tooltip="미국 클럽모나코 남성 긴팔 얇은 스트라이프 포플린 셔츠 Long Sleeve Thin Stripe Poplin Shirt 576651" display="https://cr.shopping.naver.com/adcr.nhn?x=pZ6GNyHYREqScbspp4fIWv%2F%2F%2Fw%3D%3DsbMUoWgtM903GAoxgd1eNHiGzr%2F%2BQSIJNycai%2FV27JHsJ2wjFjib2rS5xuC1GVXx3duw5hO0O6qogZ6iSa3FIv7%2BR7I0K2g0xib7vn9vHJjzZxnnBcUdiArBP9w%2BRe%2F09WaWPo5j6O0fIWQRxyYvGH6pNQBbS4tfjI5ySLm8Q1E2oLj%2Bg1WezUo5Wfcgpcv0XCVJIuhE8RrX5KLvilaLw7EGweQhDMpGbzC%2FFpjPJ9uXunwMTl895DuagayWQeYkF%2F7kMx7RXh4e0qbHjO86L3prFFesfYfRQM9nDp0FY%2Bb7GaKH3aRyxTyD2x6KcwCiwpQfRTO%2FngBN4xAB9Yu4CgkUUJBHli4fxvYh9YBfrL11hRFffAnwMIv4KbDg9X0OgWrhaLul6h1Vm2QA4dTF7G8WbYacPY7QbnWsRQLreDZYlySbatQwQ%2BEAaD0pjBcTb334rL%2BbR36BhYe0R%2FrUmjgBSTS1sRv49oBHxm%2Bxq6HjARqwppjAwpLovTj1CFwSBj4CKFCwn%2BgXGaH39gRA8c3%2BUucnAxrsG3xHb9QOpCsLJ%2BZmnXgInLdIp8OhuUmulLlN8gQqoPvpfj8zsxeoXzw1f4%2BN0FLO0Ly22pb6e2BhiJi9TY73KmYzApA8ciZ5AJSmoSQCkUy3HTj%2BMdPCVbSAT1bWY38ZP8m4dKI6I4a5Qle42OOt5FGHfRwLjma36RjNYV59fxxhVgulxis%2FqVqFJyU2RrOuOCGzWZEUgrAt7EcuMyVCTEj78XMbnv25NM8lGkEIZvTfAsgfQ6RNMecFhwy8PKBzWoFiaJs8CB4ur7VAb36ErED7xDOmVlGU6YDUdhhZwT7ATfCHQv4%2FfWlNkiNOj2iN%2FnDH9SF0WJ9AR5ZJqySlJgcLJXMihk4ZxHRyPBWbUFRhWScTsgQynPg%3D%3D&amp;nvMid=83322095107&amp;catId=50000833" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C25" r:id="rId7" tooltip="로렌랄프로렌 인타시아 니트 코튼 모달 여름 반팔 스웨터 YELLOW" display="https://cr.shopping.naver.com/adcr.nhn?x=fGge8q%2F4E3H9vo2aDiTcbP%2F%2F%2Fw%3D%3DsiY6CCq0wb4n0%2Bsk3535TLv0LlqkbMWWgcRXmcmuGolBjpHuDdEymLce6WxpY6Ce4cZXlsLaKxlS69V%2FyMm85rWbNB%2FbX7tUmEA83HyUYHARapjKnG%2FY7LO9MUJ8GNlLSWxk6KdOikfHIDIra79PL6Nix8OaeAwNzfRqtJRuCGXA1yPhA3AiZ8QrXeepUkdOLfHOou7IhQPVPkAfG3kJ9MwBH9aXe9h2JjieK8mL%2BLh%2FFSIVE2KtidcBeF3Cg9gDlpDgN2WrXhv2PHiscF9RNDdoUUo4QpYHMsCy%2B5YaBie5xDTRiY%2B0tg4wdqXae7XwEhmeWtJmvw8M90EK%2Bzy5a1yVdN3LpKf%2FbKuiZi7z1XJTJxEozK9DlmgN5cYhYnbfH91PnuGRijfb1HewIm4kS6ce9j9TM33g7MivnAbc9%2BIBCOQtcfwV9UyzpGwV2BQmavEI7rEs6lNRuGJYCSrpLe7aYdCUsTrkNGSGiO2WYluuVwOYs%2FqXIakdinB5MBavZYxV%2Bnp6xx7wCRB57jlV4ShHnH6%2Bz80TbxQfOt8l8pql9JmeCkARahURORLuhBzwaFkv8%2Fr%2FkuTdVAxMjJFFsXH6bGCb17csOEl09DjDCjXUorLjRq2YH4ABd4INKHgwoSrWly1B834bCyB82fQ9TyfaHwaRfVJNFfdBi%2FbgbUlvwpTlLmJwA8rC4eynVXNOYkHaXlaRb6pc1MMn2Qgjzp29TZjqEQTAbFzUBl8432wvhVEAf6wwM5tqtSh0bB5Hx&amp;nvMid=83105523838&amp;catId=50000805" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C26" r:id="rId8" tooltip="[ASIA] 스트라이프 긴팔 티셔츠 (LIGHT ORANGE) CKTS0F525O1" display="https://cr.shopping.naver.com/adcr.nhn?x=BIa0pjpHV%2BmNhHVn7rcF9v%2F%2F%2Fw%3D%3DsSQy4imW%2FcEFY5mRwEz4amupYm%2FaphIVjPSYhRhNyBElMKeNT7oKd24RwqRoFQYFrPOQJgdPjjIA5%2FqVDJleWSSNikJgEkW5zVvvE%2B9FaW7ayXqwpREYPeYbtdtWbFzpQut4x2JGFLDyvWJG1iFJHjGh127OkcPUgfAIPJjmUI1Gkm4EINq7DXRqLChynlQJHSX6sI6MwwFbJD%2BXambx%2BXerEAXo9XMSjmP9ZJDMLzNswi0nS94faqXj8%2FxF8AEeOIRpk%2F3naDVH141FQydqSq1JReKPpLs7eM2%2Fs8wOUAeko5kfPcyWYHsE5YIQe9mCkvzy3klAoogkFwoqP3leRIyXJJtq1DBD4QBoPSmMFxNvffisv5tHfoGFh7RH%2BtSaOAFJNLWxG%2Fj2gEfGb7GroeGPBHR371qtbniSXz6XikUA0jV2CV9%2BEqAxqhNpGOZR3V36ogsAbT2GMBHUreotiQNSUlKJ8h84dKXp9M6LB%2FWMHH6NUhMW8a3p%2FeiLVL1ljF%2B5KiYX8oKq04pbu1TKf00tR6mS7dug6Riz%2Br83jpLc85AmB0%2BOMgDn%2BpUMmV5ZJI2KQmASRbnNW%2B8T70VpbtrJerClERg95hu121ZsXOlC7gOClfcPwvIrXH2jztCafY6%2BKy6NtiNkhQHLUIWKLmYlU6LuMGG8wqku7c2%2BVcNLmELFO07QEQYUyi%2Bk709RTWYlCsofVsPN5CMO1fW%2FZwtD9tEimLNwPdXnZMzNxQjTZ5SuBQrE1Wru4Ak4nciNohWw3%2BIByOa0jCVNQVnCDoA%3D%3D&amp;nvMid=83312350646&amp;catId=50000830" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C3" r:id="rId1" tooltip="로저비비에 실버 여성 플라워 스트라스 버클 펌프스 / ROGER VIVIER FLOWER STRASS BUCKLE PUMPS (관부가세 불포함)" display="https://cr.shopping.naver.com/adcr.nhn?x=d3N7RJmM6p06eWjtafXt8v%2F%2F%2Fw%3D%3DsMNj6o3vGXsNN0ROM6wIMTg8V60KMSh3H9qIFOnUdaBnclH%2BOYrlGLNo6xkox950Chc61n7dh17gsJ12nPlStKLkYIxuPWj%2FzbZD%2FgSgw%2BmseKc2vHmyDiFz6z7BhkveXpOr9sPYwajBkeE07IGGkJ1apdC5dhhD5mAA3omrTA3QU4C6kJNkgW0jdT3oOegh2tBEINplRGOcL30oPpGAh3xSSPd7%2FjV1EQGHRdsy3EvPmtDtk1%2BxiA2Vt3XvL41PMHTuK0lNNGPPNMuNnn1NGmmd2ekdiorBtiO%2FS6JP58cHKhpw5bGtHCiawE8g8YBEuyLfRC0o%2FWYDsFhk%2BnF4ktzVCZ4rdk8hPModxsSdH4jzPs3W4FiDoCAyGAtDOgG%2BXDlBLqOF0ReVAOhPXzR%2ByR8IBwxuOOA%2BnmtCjWPmM%2BdOPb8vbC1FieQCaX7ZG7U9eH%2FW%2FYvncGAD3uL2mobUGYX%2F6Jg8nWsiqyDD%2Bpv26bWUgXPK%2F06f%2BN298MLSpugT9BqD8m8FcgS8%2Bbxv1leqjGru8wdcHV5BAGBTE%2BwcI5Old0dNQZzCoSqWZ13UiVvdXUYvxH8BPlO2S9n28Ci0N9GMrzXKG3gPpC31XXLB4kvVi5WFXCCCePqrXkyPwvwvZMrr74Tw8oTnsx2tsVaIuJ7fh7rfZXeYCgbHhBspsh4V1iENbt87dBhWm%2Ba8yFpbDEXQt827PIq0DWtXMapPdTYyJFlVwhP5yCfKB6qkp3TUm8l08ZjuQkPrRiCfQ%2BEDEHRyPBWbUFRhWScTsgQynPg%3D%3D&amp;nvMid=83449928983&amp;catId=50003830"/>
+    <hyperlink ref="C4" r:id="rId2" tooltip="HYERES LOR 에리떼 실버 커브 엠블럼 귀걸이 HL5E13518W9XXX" display="https://cr.shopping.naver.com/adcr.nhn?x=hwBDbaNzjuggVNMQ%2FK3Q%2F%2F%2F%2F%2Fw%3D%3DsdJsFfiXPIY0HS4yIZlgzL9PNx4qGoZ61bVcz%2BT%2BV%2FgVtsM9rEXEwL1T444%2FXhcEFEAXzKjl4piMmEuf11ZJzLbQXcxZSMr1039ghUqXqtTlJbNTPcbnF8ZDz7e0E5kkRa%2BpHa6ewb0%2FDpcGez9%2B2MjGjsRcfwXSkoYQzF5F0pljEkdk%2BeGHP8AkoSmla56VXJ6aT0bBCKSA6sO24iFJe9zRW%2Bs6b6w0rbijbehKhUvq54J8UO7LDGXdPU9Do8oyMQREElp8v3cdbp4UKsoq9srKmEJhTkiuGT8ZcuriUg4tWGQQy1BTWAHeID9oMm5MhGpVo%2Bn63YeQ1aCXwbFZDWO7vsw7HJlhcgh4rRunuj4ID4IpwfCzBtdrpcx5B0S41mXlzqOKhEEksE8MqDNXpsqnhEYmqWEiuLfB6bRPzaPxVljy3CHtWMFOUf1KaPdsaPcIU8dA8pRf6ZiBiSE75lD3bht5rSdeXcS%2FKuZZhqGVkIptLkhleORsoGb3BUK6Qy%2BL3y%2B0PnPozOnlQIH%2Fw7ZRxvxp2%2FoJZdGdpdml14fxNlNuZ0M%2FaucIFfrtZ%2FHC%2FKqrVQeFoiRy0TcYn1%2FKlDtF%2FTEqp2ektz4ZTFxhIJlEf%2BWbwtcT%2FxxReSJ3yEvvmpd7F9ZfgAt0VULV6jtXk3dZmaeHE%2FOHtbIlHGtI0He3O5qic%2Fl2QWDjSMe3d%2FYkWVJjMnpfdLHT%2BmkHEAfRozgGSeP9ISFl0zmvi%2Bd74cz62k%2BBBQEGhvEplrOhVpAiGinVDaWQvx6y4SoL5dFSemRFogIDsQnHsABx0ichdrodB0CIl3BeKsFF2drF%2B%2BsFv&amp;nvMid=26339135591&amp;catId=50004161"/>
+    <hyperlink ref="C5" r:id="rId3" tooltip="까르띠에 PANTHERE 팬더 미니사이즈 스틸밴드 WSPN0019" display="https://cr.shopping.naver.com/adcr.nhn?x=s9mPpd1pAnYTanIzro1%2F3v%2F%2F%2Fw%3D%3DsdHL0IOHHu3EOcVtLcACP8sPhYUkvH0NB%2BNbBBGzzz2EyBOrQFPirAIEf5%2BlrYAP2oWQX%2B%2FRm9DAHNV9ZTusEKRe9wd0CSHbDYH4aKqst94%2BAbCY81f975eS5nfR25FBiI1ODi9hUm3Sq0pLB9du%2BPrpOEAZZPr9NdjMeFdaw92gNxHtqu0C61RU57OzTYElmmk92yXOijJ6gSyiSD420bcv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKRDdHUtI1fFwpC4%2Bq0sLxLljG0ZbSntwqq6wS8dcLsu5lvNPJmmmfrE6Dp0zejnNms0Ge%2BvjMXsTf2VGO6yIimE2ffXUI5OM%2FcNr3r%2B%2FD3Kg0oYvHqLsruugOIirNkU0h3H9ltuHmBrSyOpOR854VkcpHK%2Br58NSzrc5LFh%2BYDVfNaoboF7sDoHiQ27cIqiFUqOnq%2Fb%2B49UzGYWtPYfgZoX%2F6Jg8nWsiqyDD%2Bpv26bWW7yl8zm2P2eb8RjMr894Deft9QDHES%2BBvnqyDDn1f8WMHe3C%2FmfUT2fLuqjOVKeEuK2D%2BlJP7QcQUrfWb6fvV5v8lVQkBZpra9Ch2mgeY28FyY3EYh6rVdaIaBmcx8SbxlEDPWyy%2B6gq29jmhSBa0tYnHIcETcJifOE8sb44IMxZXfPZMMGXqs0Aq7wX%2FXG%2Fj%2F9k0erCHT1QraFJ6Jac2ezY6of2Xpggjm6A4Z8HgJhg%3D%3D&amp;nvMid=28607920659&amp;catId=50004141"/>
+    <hyperlink ref="C6" r:id="rId4" tooltip="에르메스 에르백 31 Herbag Zip 31 Dune Magnolia" display="https://cr.shopping.naver.com/adcr.nhn?x=kLBLxZzITmDwbvUMvbet9P%2F%2F%2Fw%3D%3Ds60RzedtZrNfJMz6L2eDKfYzcRHBat6Js6TPExz9YaAeD3eZufch47WOaKZpss0hHdARhH3hPI0Kf6%2FfEZaK8%2B7kVVNGQ1tlqWQlxMcZGuwM0VvrOm%2BsNK24o23oSoVL6ueCfFDuywxl3T1PQ6PKMjPlDLGa%2BzH1VPuHBWybn7PXjRneZO9b30oDmKrVffqWbulrtvLLz8mVh0MR9fNk9sohV9JS3NXKA8p1b3m2T4jTDpmNu2Rs3tEPrV0ZTODsbRUiAgbyNQEwxTefMgv3tsVSFIPat%2Bywth7wYvxeVxDsqfqTl%2Fxa9wbynQSdTbF%2B%2B6h%2B13mM04lYBC6wWoO9rj5tB9woWcP4T5sg5bYZv052p4RGJqlhIri3wem0T82j8VZY8twh7VjBTlH9Smj3bGuE1bRbZJcAgOejk3%2FkuGtDpEXXKEcLB6pBHse60zzVt9UEMwi63jafLIzwwY0rYseKDk0Uk%2Be2sGe0x5NeTwoS0NmZ1gatCjipyP1sdWr26CzunuRq8lmFAEyltsMeW5Nk%2BthidgZ0My39pIB4CTNMCjPrs74cl6BisJsiWP%2FZLRRiPFB8cyAfDahI4PurGAXg8jytFvzVzy7LenPZkD5ZB7g05cnE%2Fr4jm04wwL7b%2Fk135FyjqykmCM8twL2wyccmXWnqqwj%2Fno4R2JKiC78dGdGb7gROPoS2VpIBO6L%2B83JL0yrjBxEHXWyxUQaZoIAE0KAaGcmhjIDxXiPYBFw0NUJgJp6CUXauCvW7Y5AjN&amp;nvMid=27944759686&amp;catId=50000640"/>
+    <hyperlink ref="C2" r:id="rId5" tooltip="에르메스 Authentic Herm s Rose Azalee Evercolor Calfskin Roulis Handbag - BNIB Authentic Herm s Ros" display="https://cr.shopping.naver.com/adcr.nhn?x=WYR8fupnpGOMa20NoLS5Z%2F%2F%2F%2Fw%3D%3DsB%2BxaFZ6UKbbl00oK8vXeDnnTWa%2FlJ%2BY%2B%2BkudvZtZECQl6Qj5aMbkBMix7SCp9w6vsnMo11NMRI2Btpn9AWJNgEls1M9xucXxkPPt7QTmSRFr6kdrp7BvT8OlwZ7P37Yy23OicXWKiB4vw6Uw%2FoUYe61Msk6Fab7%2FRGD41OsnTLQeO%2BaTVoBPNgYPL2Gw3OXblOTP5T%2BVZM2rN9y8Oh9%2FYbngnxQ7ssMZd09T0OjyjIzRdi%2BQAVqxj5m0%2BHujQFuVTQC8zNZFl3TfcpXT1RyX3zeRbsQ%2FnnncfZSq6W6te5fnSOH68m6gRsZN%2Flr%2FhqlexXa12gsT6c8Wsw9gNp8wm%2Fpj1pkkFCu2UL5xsPInce84BOYE45L6Y4bbF86UwqvaFY0AqSJOZMeLCVtoa0X5ynT%2BAuZdiuS%2FqNQMdKFOchy8umd82RyUUyioCZIujXiJ3KSBdMddPRj2YukjdaEWR3C6mAFccDqwIB%2Bw75WHy3qf6cOuALUSNNoEh3KyaoPjGkWkDx18oR8YM2Jdips7DFlTsJlauZf5M6E3mebKPEB2HexmC%2BHIL8Suh1Hm5lJLh0sm71jN85DhXeV5o8SBt7S9G4Ak6VA5uCJAqUALEVYFoCSwJ63258yAUewGMF8PiA3%2FU2AzguC84AnoS7Lq%2BV9sBC5nBKX4Cz0jyUj2VfrcWEGips4%2BfH7katyKuquZ5Hv1T%2FoDPeAT2ZD%2BWCfnsQ%3D%3D&amp;nvMid=25429483892&amp;catId=50000641"/>
+    <hyperlink ref="C23" r:id="rId6" tooltip="미국 클럽모나코 남성 긴팔 얇은 스트라이프 포플린 셔츠 Long Sleeve Thin Stripe Poplin Shirt 576651" display="https://cr.shopping.naver.com/adcr.nhn?x=pZ6GNyHYREqScbspp4fIWv%2F%2F%2Fw%3D%3DsbMUoWgtM903GAoxgd1eNHiGzr%2F%2BQSIJNycai%2FV27JHsJ2wjFjib2rS5xuC1GVXx3duw5hO0O6qogZ6iSa3FIv7%2BR7I0K2g0xib7vn9vHJjzZxnnBcUdiArBP9w%2BRe%2F09WaWPo5j6O0fIWQRxyYvGH6pNQBbS4tfjI5ySLm8Q1E2oLj%2Bg1WezUo5Wfcgpcv0XCVJIuhE8RrX5KLvilaLw7EGweQhDMpGbzC%2FFpjPJ9uXunwMTl895DuagayWQeYkF%2F7kMx7RXh4e0qbHjO86L3prFFesfYfRQM9nDp0FY%2Bb7GaKH3aRyxTyD2x6KcwCiwpQfRTO%2FngBN4xAB9Yu4CgkUUJBHli4fxvYh9YBfrL11hRFffAnwMIv4KbDg9X0OgWrhaLul6h1Vm2QA4dTF7G8WbYacPY7QbnWsRQLreDZYlySbatQwQ%2BEAaD0pjBcTb334rL%2BbR36BhYe0R%2FrUmjgBSTS1sRv49oBHxm%2Bxq6HjARqwppjAwpLovTj1CFwSBj4CKFCwn%2BgXGaH39gRA8c3%2BUucnAxrsG3xHb9QOpCsLJ%2BZmnXgInLdIp8OhuUmulLlN8gQqoPvpfj8zsxeoXzw1f4%2BN0FLO0Ly22pb6e2BhiJi9TY73KmYzApA8ciZ5AJSmoSQCkUy3HTj%2BMdPCVbSAT1bWY38ZP8m4dKI6I4a5Qle42OOt5FGHfRwLjma36RjNYV59fxxhVgulxis%2FqVqFJyU2RrOuOCGzWZEUgrAt7EcuMyVCTEj78XMbnv25NM8lGkEIZvTfAsgfQ6RNMecFhwy8PKBzWoFiaJs8CB4ur7VAb36ErED7xDOmVlGU6YDUdhhZwT7ATfCHQv4%2FfWlNkiNOj2iN%2FnDH9SF0WJ9AR5ZJqySlJgcLJXMihk4ZxHRyPBWbUFRhWScTsgQynPg%3D%3D&amp;nvMid=83322095107&amp;catId=50000833"/>
+    <hyperlink ref="C24" r:id="rId7" tooltip="로렌랄프로렌 인타시아 니트 코튼 모달 여름 반팔 스웨터 YELLOW" display="https://cr.shopping.naver.com/adcr.nhn?x=fGge8q%2F4E3H9vo2aDiTcbP%2F%2F%2Fw%3D%3DsiY6CCq0wb4n0%2Bsk3535TLv0LlqkbMWWgcRXmcmuGolBjpHuDdEymLce6WxpY6Ce4cZXlsLaKxlS69V%2FyMm85rWbNB%2FbX7tUmEA83HyUYHARapjKnG%2FY7LO9MUJ8GNlLSWxk6KdOikfHIDIra79PL6Nix8OaeAwNzfRqtJRuCGXA1yPhA3AiZ8QrXeepUkdOLfHOou7IhQPVPkAfG3kJ9MwBH9aXe9h2JjieK8mL%2BLh%2FFSIVE2KtidcBeF3Cg9gDlpDgN2WrXhv2PHiscF9RNDdoUUo4QpYHMsCy%2B5YaBie5xDTRiY%2B0tg4wdqXae7XwEhmeWtJmvw8M90EK%2Bzy5a1yVdN3LpKf%2FbKuiZi7z1XJTJxEozK9DlmgN5cYhYnbfH91PnuGRijfb1HewIm4kS6ce9j9TM33g7MivnAbc9%2BIBCOQtcfwV9UyzpGwV2BQmavEI7rEs6lNRuGJYCSrpLe7aYdCUsTrkNGSGiO2WYluuVwOYs%2FqXIakdinB5MBavZYxV%2Bnp6xx7wCRB57jlV4ShHnH6%2Bz80TbxQfOt8l8pql9JmeCkARahURORLuhBzwaFkv8%2Fr%2FkuTdVAxMjJFFsXH6bGCb17csOEl09DjDCjXUorLjRq2YH4ABd4INKHgwoSrWly1B834bCyB82fQ9TyfaHwaRfVJNFfdBi%2FbgbUlvwpTlLmJwA8rC4eynVXNOYkHaXlaRb6pc1MMn2Qgjzp29TZjqEQTAbFzUBl8432wvhVEAf6wwM5tqtSh0bB5Hx&amp;nvMid=83105523838&amp;catId=50000805"/>
+    <hyperlink ref="C25" r:id="rId8" tooltip="[ASIA] 스트라이프 긴팔 티셔츠 (LIGHT ORANGE) CKTS0F525O1" display="https://cr.shopping.naver.com/adcr.nhn?x=BIa0pjpHV%2BmNhHVn7rcF9v%2F%2F%2Fw%3D%3DsSQy4imW%2FcEFY5mRwEz4amupYm%2FaphIVjPSYhRhNyBElMKeNT7oKd24RwqRoFQYFrPOQJgdPjjIA5%2FqVDJleWSSNikJgEkW5zVvvE%2B9FaW7ayXqwpREYPeYbtdtWbFzpQut4x2JGFLDyvWJG1iFJHjGh127OkcPUgfAIPJjmUI1Gkm4EINq7DXRqLChynlQJHSX6sI6MwwFbJD%2BXambx%2BXerEAXo9XMSjmP9ZJDMLzNswi0nS94faqXj8%2FxF8AEeOIRpk%2F3naDVH141FQydqSq1JReKPpLs7eM2%2Fs8wOUAeko5kfPcyWYHsE5YIQe9mCkvzy3klAoogkFwoqP3leRIyXJJtq1DBD4QBoPSmMFxNvffisv5tHfoGFh7RH%2BtSaOAFJNLWxG%2Fj2gEfGb7GroeGPBHR371qtbniSXz6XikUA0jV2CV9%2BEqAxqhNpGOZR3V36ogsAbT2GMBHUreotiQNSUlKJ8h84dKXp9M6LB%2FWMHH6NUhMW8a3p%2FeiLVL1ljF%2B5KiYX8oKq04pbu1TKf00tR6mS7dug6Riz%2Br83jpLc85AmB0%2BOMgDn%2BpUMmV5ZJI2KQmASRbnNW%2B8T70VpbtrJerClERg95hu121ZsXOlC7gOClfcPwvIrXH2jztCafY6%2BKy6NtiNkhQHLUIWKLmYlU6LuMGG8wqku7c2%2BVcNLmELFO07QEQYUyi%2Bk709RTWYlCsofVsPN5CMO1fW%2FZwtD9tEimLNwPdXnZMzNxQjTZ5SuBQrE1Wru4Ak4nciNohWw3%2BIByOa0jCVNQVnCDoA%3D%3D&amp;nvMid=83312350646&amp;catId=50000830"/>
+    <hyperlink ref="C37" r:id="rId9" tooltip="농심 올리브 짜파게티 140g" display="https://cr.shopping.naver.com/adcr.nhn?x=FZoSXhKnp2yPohLWFNW%2Bzf%2F%2F%2Fw%3D%3DsUobtasJB1tVyArbxaEhGKYzHf%2Fv00SbaiVyRLKCDFueXoKhgM0kFvc5gw1tVO1cwavT2rJ0qZAw%2FlGUfcjSgfG94TxhQnqR0GKfYI33OVfi54J8UO7LDGXdPU9Do8oyM%2BUMsZr7MfVU%2B4cFbJufs9e3PdfAvaWg4TWfa%2BexZ9c93RIYXwhe2a9ilw1WbkRmclGhZv10GvTmBAuFVbvgO9sOmY27ZGze0Q%2BtXRlM4OxuiUtTy0ms8zGVISmyAZ50%2BFvsHizSHDI5kjElOlHx7e15VkXY2BJ%2BtTt%2FyiIOwvLw8K4zHNMwbig9%2FFXGr8LMts5ZIwRCR0paD7Y%2Fp9e10nmp%2B6OLPS2eyMjLRQ4JzeCgT8HlmHYEYcOOI4CnGo%2BaRiZgBhwaECQOD7uLFW0oIEMJ8HUJtUlN6z5BXIkX3DhQxUyEH3mSv22oGGtxWGnevP%2F6jX4NzOjFyN39THZLaZdqr4wLbjedaprgogA7V2vM8UsS7vGjB0gnmc1TPXsBFW5fytJ2jxLb74xcYgTTzjYbNSO1R08i38FXfnd1hGQV2fPTV4jL%2ByiczkMMpe1YYk7rdYbS%2ByGBSDrfh3E0NrWmYI0dKePV6TZBDBNRQY1cSzxwVRNV%2FYRemZK5z1sCEzWf7jSCDi9asVcd8WkmzBxb0gg%2FXckJBbCJF%2BWaI5EHLVWGr8fvvH1mWvUgXPK6j&amp;nvMid=7887044148&amp;catId=50002385"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId10"/>
 </worksheet>
 </file>
--- a/docs/LINKFLIX DATA.xlsx
+++ b/docs/LINKFLIX DATA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>검색어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,6 +377,18 @@
   </si>
   <si>
     <t>1:17, 40:52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갯마을 차차차 5화 (81473189)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45:09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND YOU FAIRFAX Puffed shoulder waist tuck detail shirt dress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +396,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +427,14 @@
       <name val="Source Code Pro"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -447,7 +467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -486,6 +506,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -768,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1114,151 +1137,170 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="8">
-        <v>0.33055555555555555</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8">
         <v>3.8194444444444441E-2</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D34" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="8" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D35" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D36" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D37" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D38" s="1">
         <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="11">
-        <v>5.4120370370370374E-2</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="11">
-        <v>5.451388888888889E-2</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="11">
-        <v>5.451388888888889E-2</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="1">
-        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="11">
+        <v>5.4120370370370374E-2</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="11">
+        <v>5.451388888888889E-2</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="11">
+        <v>5.451388888888889E-2</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="11">
         <v>5.4594907407407411E-2</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D42" s="1">
         <v>31</v>
       </c>
     </row>
@@ -1273,7 +1315,7 @@
     <hyperlink ref="C23" r:id="rId6" tooltip="미국 클럽모나코 남성 긴팔 얇은 스트라이프 포플린 셔츠 Long Sleeve Thin Stripe Poplin Shirt 576651" display="https://cr.shopping.naver.com/adcr.nhn?x=pZ6GNyHYREqScbspp4fIWv%2F%2F%2Fw%3D%3DsbMUoWgtM903GAoxgd1eNHiGzr%2F%2BQSIJNycai%2FV27JHsJ2wjFjib2rS5xuC1GVXx3duw5hO0O6qogZ6iSa3FIv7%2BR7I0K2g0xib7vn9vHJjzZxnnBcUdiArBP9w%2BRe%2F09WaWPo5j6O0fIWQRxyYvGH6pNQBbS4tfjI5ySLm8Q1E2oLj%2Bg1WezUo5Wfcgpcv0XCVJIuhE8RrX5KLvilaLw7EGweQhDMpGbzC%2FFpjPJ9uXunwMTl895DuagayWQeYkF%2F7kMx7RXh4e0qbHjO86L3prFFesfYfRQM9nDp0FY%2Bb7GaKH3aRyxTyD2x6KcwCiwpQfRTO%2FngBN4xAB9Yu4CgkUUJBHli4fxvYh9YBfrL11hRFffAnwMIv4KbDg9X0OgWrhaLul6h1Vm2QA4dTF7G8WbYacPY7QbnWsRQLreDZYlySbatQwQ%2BEAaD0pjBcTb334rL%2BbR36BhYe0R%2FrUmjgBSTS1sRv49oBHxm%2Bxq6HjARqwppjAwpLovTj1CFwSBj4CKFCwn%2BgXGaH39gRA8c3%2BUucnAxrsG3xHb9QOpCsLJ%2BZmnXgInLdIp8OhuUmulLlN8gQqoPvpfj8zsxeoXzw1f4%2BN0FLO0Ly22pb6e2BhiJi9TY73KmYzApA8ciZ5AJSmoSQCkUy3HTj%2BMdPCVbSAT1bWY38ZP8m4dKI6I4a5Qle42OOt5FGHfRwLjma36RjNYV59fxxhVgulxis%2FqVqFJyU2RrOuOCGzWZEUgrAt7EcuMyVCTEj78XMbnv25NM8lGkEIZvTfAsgfQ6RNMecFhwy8PKBzWoFiaJs8CB4ur7VAb36ErED7xDOmVlGU6YDUdhhZwT7ATfCHQv4%2FfWlNkiNOj2iN%2FnDH9SF0WJ9AR5ZJqySlJgcLJXMihk4ZxHRyPBWbUFRhWScTsgQynPg%3D%3D&amp;nvMid=83322095107&amp;catId=50000833"/>
     <hyperlink ref="C24" r:id="rId7" tooltip="로렌랄프로렌 인타시아 니트 코튼 모달 여름 반팔 스웨터 YELLOW" display="https://cr.shopping.naver.com/adcr.nhn?x=fGge8q%2F4E3H9vo2aDiTcbP%2F%2F%2Fw%3D%3DsiY6CCq0wb4n0%2Bsk3535TLv0LlqkbMWWgcRXmcmuGolBjpHuDdEymLce6WxpY6Ce4cZXlsLaKxlS69V%2FyMm85rWbNB%2FbX7tUmEA83HyUYHARapjKnG%2FY7LO9MUJ8GNlLSWxk6KdOikfHIDIra79PL6Nix8OaeAwNzfRqtJRuCGXA1yPhA3AiZ8QrXeepUkdOLfHOou7IhQPVPkAfG3kJ9MwBH9aXe9h2JjieK8mL%2BLh%2FFSIVE2KtidcBeF3Cg9gDlpDgN2WrXhv2PHiscF9RNDdoUUo4QpYHMsCy%2B5YaBie5xDTRiY%2B0tg4wdqXae7XwEhmeWtJmvw8M90EK%2Bzy5a1yVdN3LpKf%2FbKuiZi7z1XJTJxEozK9DlmgN5cYhYnbfH91PnuGRijfb1HewIm4kS6ce9j9TM33g7MivnAbc9%2BIBCOQtcfwV9UyzpGwV2BQmavEI7rEs6lNRuGJYCSrpLe7aYdCUsTrkNGSGiO2WYluuVwOYs%2FqXIakdinB5MBavZYxV%2Bnp6xx7wCRB57jlV4ShHnH6%2Bz80TbxQfOt8l8pql9JmeCkARahURORLuhBzwaFkv8%2Fr%2FkuTdVAxMjJFFsXH6bGCb17csOEl09DjDCjXUorLjRq2YH4ABd4INKHgwoSrWly1B834bCyB82fQ9TyfaHwaRfVJNFfdBi%2FbgbUlvwpTlLmJwA8rC4eynVXNOYkHaXlaRb6pc1MMn2Qgjzp29TZjqEQTAbFzUBl8432wvhVEAf6wwM5tqtSh0bB5Hx&amp;nvMid=83105523838&amp;catId=50000805"/>
     <hyperlink ref="C25" r:id="rId8" tooltip="[ASIA] 스트라이프 긴팔 티셔츠 (LIGHT ORANGE) CKTS0F525O1" display="https://cr.shopping.naver.com/adcr.nhn?x=BIa0pjpHV%2BmNhHVn7rcF9v%2F%2F%2Fw%3D%3DsSQy4imW%2FcEFY5mRwEz4amupYm%2FaphIVjPSYhRhNyBElMKeNT7oKd24RwqRoFQYFrPOQJgdPjjIA5%2FqVDJleWSSNikJgEkW5zVvvE%2B9FaW7ayXqwpREYPeYbtdtWbFzpQut4x2JGFLDyvWJG1iFJHjGh127OkcPUgfAIPJjmUI1Gkm4EINq7DXRqLChynlQJHSX6sI6MwwFbJD%2BXambx%2BXerEAXo9XMSjmP9ZJDMLzNswi0nS94faqXj8%2FxF8AEeOIRpk%2F3naDVH141FQydqSq1JReKPpLs7eM2%2Fs8wOUAeko5kfPcyWYHsE5YIQe9mCkvzy3klAoogkFwoqP3leRIyXJJtq1DBD4QBoPSmMFxNvffisv5tHfoGFh7RH%2BtSaOAFJNLWxG%2Fj2gEfGb7GroeGPBHR371qtbniSXz6XikUA0jV2CV9%2BEqAxqhNpGOZR3V36ogsAbT2GMBHUreotiQNSUlKJ8h84dKXp9M6LB%2FWMHH6NUhMW8a3p%2FeiLVL1ljF%2B5KiYX8oKq04pbu1TKf00tR6mS7dug6Riz%2Br83jpLc85AmB0%2BOMgDn%2BpUMmV5ZJI2KQmASRbnNW%2B8T70VpbtrJerClERg95hu121ZsXOlC7gOClfcPwvIrXH2jztCafY6%2BKy6NtiNkhQHLUIWKLmYlU6LuMGG8wqku7c2%2BVcNLmELFO07QEQYUyi%2Bk709RTWYlCsofVsPN5CMO1fW%2FZwtD9tEimLNwPdXnZMzNxQjTZ5SuBQrE1Wru4Ak4nciNohWw3%2BIByOa0jCVNQVnCDoA%3D%3D&amp;nvMid=83312350646&amp;catId=50000830"/>
-    <hyperlink ref="C37" r:id="rId9" tooltip="농심 올리브 짜파게티 140g" display="https://cr.shopping.naver.com/adcr.nhn?x=FZoSXhKnp2yPohLWFNW%2Bzf%2F%2F%2Fw%3D%3DsUobtasJB1tVyArbxaEhGKYzHf%2Fv00SbaiVyRLKCDFueXoKhgM0kFvc5gw1tVO1cwavT2rJ0qZAw%2FlGUfcjSgfG94TxhQnqR0GKfYI33OVfi54J8UO7LDGXdPU9Do8oyM%2BUMsZr7MfVU%2B4cFbJufs9e3PdfAvaWg4TWfa%2BexZ9c93RIYXwhe2a9ilw1WbkRmclGhZv10GvTmBAuFVbvgO9sOmY27ZGze0Q%2BtXRlM4OxuiUtTy0ms8zGVISmyAZ50%2BFvsHizSHDI5kjElOlHx7e15VkXY2BJ%2BtTt%2FyiIOwvLw8K4zHNMwbig9%2FFXGr8LMts5ZIwRCR0paD7Y%2Fp9e10nmp%2B6OLPS2eyMjLRQ4JzeCgT8HlmHYEYcOOI4CnGo%2BaRiZgBhwaECQOD7uLFW0oIEMJ8HUJtUlN6z5BXIkX3DhQxUyEH3mSv22oGGtxWGnevP%2F6jX4NzOjFyN39THZLaZdqr4wLbjedaprgogA7V2vM8UsS7vGjB0gnmc1TPXsBFW5fytJ2jxLb74xcYgTTzjYbNSO1R08i38FXfnd1hGQV2fPTV4jL%2ByiczkMMpe1YYk7rdYbS%2ByGBSDrfh3E0NrWmYI0dKePV6TZBDBNRQY1cSzxwVRNV%2FYRemZK5z1sCEzWf7jSCDi9asVcd8WkmzBxb0gg%2FXckJBbCJF%2BWaI5EHLVWGr8fvvH1mWvUgXPK6j&amp;nvMid=7887044148&amp;catId=50002385"/>
+    <hyperlink ref="C40" r:id="rId9" tooltip="농심 올리브 짜파게티 140g" display="https://cr.shopping.naver.com/adcr.nhn?x=FZoSXhKnp2yPohLWFNW%2Bzf%2F%2F%2Fw%3D%3DsUobtasJB1tVyArbxaEhGKYzHf%2Fv00SbaiVyRLKCDFueXoKhgM0kFvc5gw1tVO1cwavT2rJ0qZAw%2FlGUfcjSgfG94TxhQnqR0GKfYI33OVfi54J8UO7LDGXdPU9Do8oyM%2BUMsZr7MfVU%2B4cFbJufs9e3PdfAvaWg4TWfa%2BexZ9c93RIYXwhe2a9ilw1WbkRmclGhZv10GvTmBAuFVbvgO9sOmY27ZGze0Q%2BtXRlM4OxuiUtTy0ms8zGVISmyAZ50%2BFvsHizSHDI5kjElOlHx7e15VkXY2BJ%2BtTt%2FyiIOwvLw8K4zHNMwbig9%2FFXGr8LMts5ZIwRCR0paD7Y%2Fp9e10nmp%2B6OLPS2eyMjLRQ4JzeCgT8HlmHYEYcOOI4CnGo%2BaRiZgBhwaECQOD7uLFW0oIEMJ8HUJtUlN6z5BXIkX3DhQxUyEH3mSv22oGGtxWGnevP%2F6jX4NzOjFyN39THZLaZdqr4wLbjedaprgogA7V2vM8UsS7vGjB0gnmc1TPXsBFW5fytJ2jxLb74xcYgTTzjYbNSO1R08i38FXfnd1hGQV2fPTV4jL%2ByiczkMMpe1YYk7rdYbS%2ByGBSDrfh3E0NrWmYI0dKePV6TZBDBNRQY1cSzxwVRNV%2FYRemZK5z1sCEzWf7jSCDi9asVcd8WkmzBxb0gg%2FXckJBbCJF%2BWaI5EHLVWGr8fvvH1mWvUgXPK6j&amp;nvMid=7887044148&amp;catId=50002385"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId10"/>
